--- a/BackTest/2019-10-22 BackTest CMT.xlsx
+++ b/BackTest/2019-10-22 BackTest CMT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.499999999999993</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L12" t="n">
         <v>19.19</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.699999999999992</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L13" t="n">
         <v>19.19</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L14" t="n">
         <v>19.19</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L15" t="n">
         <v>19.21</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>19.23</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
       <c r="L17" t="n">
         <v>19.23</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.999999999999989</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>11.11111111111093</v>
+      </c>
       <c r="L18" t="n">
         <v>19.26000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.999999999999989</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>25.00000000000011</v>
+      </c>
       <c r="L19" t="n">
         <v>19.27</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.099999999999991</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>50</v>
+      </c>
       <c r="L20" t="n">
         <v>19.3</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.099999999999991</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>19.34000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.099999999999991</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
       <c r="L22" t="n">
         <v>19.36000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.29999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>19.38000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>2.399999999999991</v>
       </c>
       <c r="K24" t="n">
-        <v>-4.761904761904842</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L24" t="n">
         <v>19.37</v>
@@ -1515,7 +1537,7 @@
         <v>2.599999999999991</v>
       </c>
       <c r="K25" t="n">
-        <v>14.28571428571419</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L25" t="n">
         <v>19.38</v>
@@ -1564,7 +1586,7 @@
         <v>2.79999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>4.347826086956442</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L26" t="n">
         <v>19.37</v>
@@ -1613,7 +1635,7 @@
         <v>2.899999999999988</v>
       </c>
       <c r="K27" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L27" t="n">
         <v>19.35</v>
@@ -1662,7 +1684,7 @@
         <v>2.999999999999986</v>
       </c>
       <c r="K28" t="n">
-        <v>4.761904761904681</v>
+        <v>-20</v>
       </c>
       <c r="L28" t="n">
         <v>19.33</v>
@@ -1711,7 +1733,7 @@
         <v>2.999999999999986</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.26315789473694</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L29" t="n">
         <v>19.31</v>
@@ -1760,7 +1782,7 @@
         <v>3.099999999999984</v>
       </c>
       <c r="K30" t="n">
-        <v>-5.263157894736763</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L30" t="n">
         <v>19.27</v>
@@ -1809,7 +1831,7 @@
         <v>3.199999999999982</v>
       </c>
       <c r="K31" t="n">
-        <v>5.263157894736763</v>
+        <v>-27.27272727272756</v>
       </c>
       <c r="L31" t="n">
         <v>19.23999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>3.199999999999982</v>
       </c>
       <c r="K32" t="n">
-        <v>-5.882352941176594</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L32" t="n">
         <v>19.20999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>3.299999999999979</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L33" t="n">
         <v>19.18999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>3.499999999999979</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L34" t="n">
         <v>19.2</v>
